--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T18:03:54+00:00</t>
+    <t>2024-01-03T22:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="298">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,6 +466,22 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>List.extension:label</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/label-extension}
+</t>
+  </si>
+  <si>
+    <t>Alias such as acronym and alternate names.</t>
+  </si>
+  <si>
+    <t>A text label accompanied by a code indicating the label type (such as Acronym, subtitle, etc)</t>
+  </si>
+  <si>
     <t>List.modifierExtension</t>
   </si>
   <si>
@@ -606,7 +622,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.ioo/ncpi-fhir-ig-2/CodeSystem/collection-type</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/collection-type-vs</t>
   </si>
   <si>
     <t>.code</t>
@@ -1226,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1260,7 +1276,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.6640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2359,11 +2375,13 @@
         <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2376,26 +2394,22 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2452,13 +2466,13 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2466,14 +2480,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2486,22 +2500,26 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2549,7 +2567,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2561,21 +2579,21 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2583,22 +2601,22 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>158</v>
@@ -2606,9 +2624,7 @@
       <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2633,13 +2649,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2657,13 +2673,13 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -2672,18 +2688,18 @@
         <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2709,17 +2725,15 @@
         <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2743,13 +2757,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2767,7 +2781,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
@@ -2782,18 +2796,18 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2810,23 +2824,25 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2839,7 +2855,7 @@
         <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>76</v>
@@ -2851,13 +2867,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -2875,10 +2891,10 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>84</v>
@@ -2890,18 +2906,18 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2924,19 +2940,17 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2949,7 +2963,7 @@
         <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>76</v>
@@ -2961,11 +2975,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -2983,7 +2999,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2998,18 +3014,18 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3017,7 +3033,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -3032,19 +3048,19 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3069,13 +3085,11 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3093,7 +3107,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3108,18 +3122,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3139,19 +3153,23 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3199,7 +3217,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3214,18 +3232,18 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3245,23 +3263,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3309,7 +3323,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3324,22 +3338,22 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3358,19 +3372,19 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3419,7 +3433,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -3434,22 +3448,22 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3465,22 +3479,22 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3505,13 +3519,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3529,7 +3543,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3544,18 +3558,18 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3566,7 +3580,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3578,16 +3592,20 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3611,13 +3629,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3635,13 +3653,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -3669,7 +3687,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -3692,9 +3710,7 @@
       <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3752,13 +3768,13 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3766,10 +3782,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3777,10 +3793,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3792,15 +3808,17 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -3849,19 +3867,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>248</v>
@@ -3879,14 +3897,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3898,7 +3916,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>250</v>
@@ -3906,9 +3924,7 @@
       <c r="M25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3963,16 +3979,16 @@
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -3980,14 +3996,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4000,10 +4016,10 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>130</v>
@@ -4015,11 +4031,9 @@
         <v>256</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4097,38 +4111,38 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4153,13 +4167,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4177,22 +4191,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4200,10 +4214,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4220,59 +4234,57 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4289,7 +4301,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4298,13 +4310,13 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4312,10 +4324,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4332,81 +4344,85 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>96</v>
@@ -4431,7 +4447,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4446,16 +4462,18 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4506,7 +4524,7 @@
         <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>84</v>
@@ -4537,7 +4555,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4552,20 +4570,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4589,13 +4603,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4616,21 +4630,131 @@
         <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="N32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
